--- a/CheckList/СheckList_Module_3_task_5.xlsx
+++ b/CheckList/СheckList_Module_3_task_5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Skillbox_Practice\BugReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Skillbox_Practice\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A9135-1950-4827-ADF8-23ACEF94159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A20DC-16BD-4B0A-93E6-EC11A5030E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Баг - поле принимает пробелы как валидные данные</t>
   </si>
   <si>
-    <t>Баг - форма принимает не заполненое поле и не заполнение поля</t>
-  </si>
-  <si>
     <t>Баг - форма принимает нелевой месяц/нулевой лень/нулевой год
 0.0.2021</t>
   </si>
@@ -139,10 +136,13 @@
     <t>Баг - форма позволяет вводить текст</t>
   </si>
   <si>
-    <t>Баг - у формы отсутствует маска по типу ДД/ММ/ГГГГ. Допускается ввод люого количества символов</t>
-  </si>
-  <si>
     <t>Баг - форма принимает 0</t>
+  </si>
+  <si>
+    <t>Баг - форма принимает не заполненое поле и не проверяет заполненость поля</t>
+  </si>
+  <si>
+    <t>Баг - у формы отсутствует маска по типу ДД/ММ/ГГГГ. Допускается ввод любого количества символов</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -640,18 +640,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
